--- a/biology/Botanique/Mélampyre_à_crête/Mélampyre_à_crête.xlsx
+++ b/biology/Botanique/Mélampyre_à_crête/Mélampyre_à_crête.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9lampyre_%C3%A0_cr%C3%AAte</t>
+          <t>Mélampyre_à_crête</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melampyrum cristatum
 Le mélampyre à crête ou mélampyre en crête (Melampyrum cristatum) est une plante herbacée annuelle de la famille des Orobanchacées (anciennement Scrofulariacées).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9lampyre_%C3%A0_cr%C3%AAte</t>
+          <t>Mélampyre_à_crête</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mélampyre à crête est une plante annuelle à port dressé et rameaux étalés haute de 20 à 30 cm.
 Ses feuilles, sessiles sont lancéolées-linéaires.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9lampyre_%C3%A0_cr%C3%AAte</t>
+          <t>Mélampyre_à_crête</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mélampyre à crête fréquente les bois et les pâturages secs.
 On le trouve en Europe centrale et boréale, en Sibérie. Le mélampyre à crête est présent en France métropolitaine dans de nombreux départements mais absent des régions Bretagne et Corse.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9lampyre_%C3%A0_cr%C3%AAte</t>
+          <t>Mélampyre_à_crête</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce protégée en régions Lorraine et Basse-Normandie (Article 1).
 Sur les autres projets Wikimedia :
